--- a/tradept/Excel/Localization/Main/english/X项目效果_Projects_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/X项目效果_Projects_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140AD8FF-92AF-4571-9223-8C1FDD7FC737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F4F13-C53D-4536-A60B-F7C29794D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1091">
   <si>
     <t>项目ID_ItemID</t>
   </si>
@@ -1953,1367 +1953,1357 @@
     <t>需要30人在此工作，允许招募&lt;color=red&gt;蛮牛开山射手&lt;/color&gt;</t>
   </si>
   <si>
-    <t>Mejorar el puesto tribal</t>
-  </si>
-  <si>
-    <t>Mejorar la Fortaleza Tribal</t>
-  </si>
-  <si>
-    <t>Granja pequeña</t>
-  </si>
-  <si>
-    <t>Granja</t>
-  </si>
-  <si>
-    <t>Granja grande</t>
-  </si>
-  <si>
-    <t>Perreras descuidadas</t>
-  </si>
-  <si>
-    <t>Menagería</t>
-  </si>
-  <si>
-    <t>Campamento de mercenarios</t>
-  </si>
-  <si>
-    <t>Gremio de Mercenarios</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>Forja</t>
-  </si>
-  <si>
-    <t>Forja de élite</t>
-  </si>
-  <si>
-    <t>Centinela de madera</t>
-  </si>
-  <si>
-    <t>Centinela sólido</t>
-  </si>
-  <si>
-    <t>Torre de vigilancia</t>
-  </si>
-  <si>
     <t>Portal Arcano</t>
   </si>
   <si>
-    <t>Armería</t>
-  </si>
-  <si>
-    <t>Gran armería</t>
-  </si>
-  <si>
     <t>Arsenal Real</t>
   </si>
   <si>
-    <t>Establos de Cabaña</t>
-  </si>
-  <si>
-    <t>Establos de equitación</t>
-  </si>
-  <si>
-    <t>Establos del Sultán</t>
-  </si>
-  <si>
-    <t>Campamento de Jade</t>
-  </si>
-  <si>
-    <t>Cabaña de Jade</t>
-  </si>
-  <si>
-    <t>Campamento minero</t>
-  </si>
-  <si>
-    <t>Cabaña minera</t>
-  </si>
-  <si>
-    <t>Campamento de tala de árboles</t>
-  </si>
-  <si>
-    <t>Cabaña de troncos</t>
-  </si>
-  <si>
-    <t>Puesto de intercambio</t>
-  </si>
-  <si>
-    <t>Depósito de comercio</t>
-  </si>
-  <si>
-    <t>Bazar de comercio</t>
-  </si>
-  <si>
-    <t>Casa pequeña</t>
-  </si>
-  <si>
-    <t>Casa renovada</t>
-  </si>
-  <si>
-    <t>Domicilio Medio</t>
-  </si>
-  <si>
-    <t>Residencia grande</t>
-  </si>
-  <si>
-    <t>Aguas Dulces</t>
-  </si>
-  <si>
-    <t>El hogar de la naturaleza</t>
-  </si>
-  <si>
-    <t>Manantial de la cúspide</t>
-  </si>
-  <si>
-    <t>Pilar de Fuego</t>
-  </si>
-  <si>
-    <t>Ruinas destrozadas</t>
-  </si>
-  <si>
     <t>Biblioteca</t>
   </si>
   <si>
     <t>Biblioteca Secreta</t>
   </si>
   <si>
-    <t>Biblioteca antigua</t>
-  </si>
-  <si>
-    <t>Campamento de los aldeanos de Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de espías Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Asesinos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Asesinos de Elite Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Cazadores de Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Maestro Asesino Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Iniciación Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de sacerdotes Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Sumo Sacerdote Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Ancianos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Jóvenes Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Aprendices de Alquimia Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Apóstol Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Sacerdotisa Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Alta Sacerdotisa Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Viuda Negra Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Viuda Negra Elite Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Agricultores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de la Milicia Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de ballesteros de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros de élite Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros con ballesta Nasir Ace</t>
-  </si>
-  <si>
-    <t>Campamento de Aprendices Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Novatos Caster Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de lanzadores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Magos Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Altos Magos Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de los Ancianos Místicos de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Sanadores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de clérigos de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de élite Nasir Spearman</t>
-  </si>
-  <si>
-    <t>Campamento de Lanceros Pesados Nasir</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Lancer</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Gallant</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Heavy Gallant</t>
-  </si>
-  <si>
-    <t>Campamento de Jinete Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Caballería Pesada Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de la Guardia de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de guerreros de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Skirmishers de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Pesada de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Blindada de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Sargento Thur de élite</t>
-  </si>
-  <si>
-    <t>Campamento del Berserker de Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Calenturiento de la Guerra</t>
-  </si>
-  <si>
-    <t>Campamento de tiro con arco de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores Thur</t>
-  </si>
-  <si>
-    <t>Campamento de agricultores Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de pastores de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Héroes Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Soldados Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Campamento del Caballero Ashen Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Campamento de guerreros Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Elite Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Maestros de Espada Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de cazadores de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de rastreo de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento Dhib Tamer</t>
-  </si>
-  <si>
-    <t>Campamento de entrenamiento de élite de Dhib Beast</t>
-  </si>
-  <si>
-    <t>Campamento de Falconer Dhib</t>
-  </si>
-  <si>
-    <t>Campamento del Maestro de Bestias Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de los habitantes de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Akhal de Élite</t>
-  </si>
-  <si>
-    <t>Campamento Guerrero de la Tormenta Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Camellos Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Camellos Akhal de Élite</t>
-  </si>
-  <si>
-    <t>Campamento del Engañador Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Jinetes Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de jinetes de élite de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Pesada Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Pesada Elite Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de la Tormenta de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento Akhal Archrider</t>
-  </si>
-  <si>
-    <t>Campamento de Elite Akhal Archrider</t>
-  </si>
-  <si>
-    <t>Campamento de Arqueros Pesados Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Discípulos del Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento Elite Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento del Profeta Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Clérigos Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Pesada Nasir</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Longspearman</t>
-  </si>
-  <si>
-    <t>Campamento de Hoplitas Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Caballería de Asalto Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Tiro Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores Rápidos Nasir Swift</t>
-  </si>
-  <si>
-    <t>Campamento de herbolarios Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Acechadores de Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Lanzadores de Dardos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento Dakn Bolt Thrower</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores de Espinas Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Bebedor de Veneno Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Envenenador Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de jinetes de camellos Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Jinetes Pesados Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Ligera Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Lanza Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros a caballo Akhal</t>
-  </si>
-  <si>
-    <t>Campamento del Akhal Reaver</t>
-  </si>
-  <si>
-    <t>Campamento Dhib Claymore</t>
-  </si>
-  <si>
-    <t>Campamento del Gran Espadachín Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Lanceros Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Dhib Halberdier</t>
-  </si>
-  <si>
-    <t>Campamento de Tramperos Dhib</t>
-  </si>
-  <si>
-    <t>Campamento Militante de Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Gran Arquero</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores de Thur Ridge</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 5 o más para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 10 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:id$][=]Construcción de una pequeña granja con el MOD</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15 o más y una base de nivel 3 o superior para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:id$][=]建设MOD农庄</t>
-  </si>
-  <si>
-    <t>Requiere una base de nivel 2+ para construir. #[$tagbuilding:id$][=]建设MOD破旧兽栏</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 5 o más para construir; solo se puede construir 1 Campamento de Mercenarios en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 25 o más y una base de nivel 2 o superior para construir; solo se puede construir 1 Campamento de Mercenarios en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 10 o más para construir; solo se puede construir 1 herrería en cada ciudad. #[$tagplace:building_t=建设MOD雇佣兵营:建设MOD主城$][&lt;]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15+ y una base de nivel 2+ para construir; solo se puede construir 1 herrería en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y una base de nivel 3 o superior para construir. #[$tagbuilding:type$][=]建设MOD铁匠铺&amp;[$tagbuilding:level$][=]2</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir; solo se puede construir 1 Centinela en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y una base de nivel 2 o superior para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y una base de nivel 2 o superior para construir; solo se puede construir 1 Portal Arcano en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15 o más para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 25 o más y una base de nivel 2 o superior para construir; solo se puede construir 1 Armería en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 25 o más y una base de nivel 2 o superior para construir; solo se puede construir 1 Arsenal en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 5 o más para construir; solo se puede construir 1 establo en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 10 o más y una base de nivel 2 o superior para construir; solo se puede construir 1 Establo en cada ciudad</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15+ y una base de nivel 3+ para construir; solo se puede construir 1 Establo en cada ciudad. #[$tagbuilding:type$][=]建设MOD骑手马厩&amp;[$tagbuilding:level$][=]2</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 5 o más y una base de nivel 2 o superior para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15+ y una base de nivel 3+ para construir. #[$tagbuilding:level$][=]1&amp;[$tagbuilding:type$][=]采玉场. 
-Requiere una población inactiva de 15+ y una base de nivel 3+ para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15+ y una base de nivel 2+ para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 10 o más para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 15+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD贸易&amp;[$tagbuilding:level$][=]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 3 o superior para construir. #[$tagbuilding:type$][=]建设MOD贸易&amp;[$tagbuilding:level$][=]2</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=] Construir biblioteca del MOD</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 40+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construye la misteriosa biblioteca del MOD</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y el apoyo tribal de los Dakn para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族村民. 
-Translation: Requiere una población inactiva de 20 o más para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族村民</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族密探</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:type$][=]建设MOD蝎族刺客</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:type$][=]建设MOD蝎族精英刺客</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construyendo el MOD Asesino de Escorpiones</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族密探. 
-Translation: Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=] Construcción del MOD de espías escorpiones</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=] Construcción del aprendiz de sacerdote escorpión del MOD</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族祭司</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construcción del MOD Sacerdote de la Tribu Escorpión de alto rango</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y el apoyo tribal de los Dakn para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族少女</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=] Construyendo MOD de aprendiz de alquimista escorpión</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=] Construcción del MOD Alquimista Escorpión</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族女使徒</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族女祭司</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族女刺客</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y el apoyo tribal de los Nasir para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰民夫</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰民兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰弩手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construcción de MOD de arqueros de élite águila real</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰学徒. 
-Requiere una población inactiva de 20+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰学徒</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰见习施法者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰施法者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰巫师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰高阶巫师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰治疗巫师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰步兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=] Construcción del MOD de soldados de élite águilas</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰重装枪兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰盾卫</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰步兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰骑手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰重骑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y el apoyo tribal de los Thur para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛勇士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛刀手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛重步兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construcción de MOD de Infantería Blindada de Iron Bull</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛掠夺者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛武装掠夺者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛狂暴战士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD蛮牛猎手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛弓箭手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛神射手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más y el apoyo tribal de los Dhib para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD雪岭农夫</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD雪岭牧民</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD雪岭壮士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭灰袍军</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construyendo el MOD de los Guardias de Armadura Gris de Snowy Peaks</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭勇士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭精英勇士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭剑术大师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD雪岭猎人</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭追击者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭驯兽师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construir MOD Snowpeak Falconer | [$tagbuilding:type$][=] Construir MOD Snowpeak Elite Beastmaster</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ y el apoyo tribal de los Akhal para construir</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD荒沙住民</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD荒沙刀客</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD荒沙武士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精英武士</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD荒沙骆驼骑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙住民</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙镖手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙枪骑</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精锐枪骑</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙重骑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construcción del mod de Caballería Pesada de Élite en el Desierto</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙弓骑</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 50+ y una base de nivel 3+ para construir. #[$tagbuilding:type$][=] Construcción de la unidad de arqueros y jinetes de élite en el mod de Desierto Abandonado</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=] Construcción del aprendiz de chamán en el desierto</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙萨满</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精英萨满</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰盾卫</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰长枪兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰骑手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰射手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰治疗师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎暗杀者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎镖手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎棘枪手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎炼毒师</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马骆驼骑手</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马轻骑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马弓骑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭巨剑兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭长枪兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭追踪者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛重步兵</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30 o más y una base de nivel 2 o superior para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛武装者</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 30+ y una base de nivel 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛巨弓射手</t>
-  </si>
-  <si>
-    <t>Actualiza para desbloquear más edificios y mejoras. Aumenta el límite de población a 20</t>
-  </si>
-  <si>
-    <t>Actualiza para desbloquear más edificios y mejoras. Aumenta el límite de población a 40</t>
-  </si>
-  <si>
-    <t>Requiere una población de 5 o más para construir. Produce una pequeña cantidad de comida cada semana</t>
-  </si>
-  <si>
-    <t>Requiere una población de 10 o más para construir. Produce algo de comida cada semana</t>
-  </si>
-  <si>
-    <t>Requiere una población de 15 o más para construir. Produce una gran cantidad de alimentos cada semana</t>
-  </si>
-  <si>
-    <t>Encierra a las bestias en las perreras para entrenar y generar EXP de bestias. La EXP de bestias aumenta a medida que mejora el nivel de tu perrera</t>
-  </si>
-  <si>
-    <t>Requiere una población de 5 o más para construir. Recluta mercenarios y entrena tropas guarnecidas aquí</t>
-  </si>
-  <si>
-    <t>Requiere una población de 25 o más para construir. Recluta mercenarios por un tercio del costo y entrena tropas guarnecidas aquí</t>
-  </si>
-  <si>
-    <t>Requiere una población de 10 o más para construir. Repara cualquier pieza de equipo de nivel 1-7 aquí</t>
-  </si>
-  <si>
-    <t>Requiere una población de 15 o más para construir. Repara cualquier pieza de equipo de nivel 1-12 aquí</t>
-  </si>
-  <si>
-    <t>Requiere una población de 20 o más para construir. Repara cualquier pieza de equipo aquí y recluta una ballesta</t>
-  </si>
-  <si>
-    <t>Requiere una población de 20 o más para construir. Proporciona una fuerza de patrulla básica para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Requiere una población de 20 o más para construir. Proporciona una fuerza de patrulla más grande para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Requiere una población de 20 o más para construir. Proporciona una fuerza de patrulla de élite para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Requiere una población de 20 o más para construir. Te transporta a cualquier ciudad no hostil a través del desierto</t>
-  </si>
-  <si>
-    <t>Requiere una población de 15+. Otorga a las tropas visitantes un aumento de defensa del +30% durante 7 días</t>
-  </si>
-  <si>
-    <t>Requiere una población de 25+. Visita para obtener un aumento de defensa del +30% para todas las tropas durante 10 días</t>
-  </si>
-  <si>
-    <t>Requiere una población de 15+. Visita para obtener un aumento de ataque del +30% para todas las tropas durante 7 días</t>
-  </si>
-  <si>
-    <t>Requiere una población de 25 o más. Visita para obtener un aumento del 30% en el ataque para todas las tropas durante 10 días</t>
-  </si>
-  <si>
-    <t>Requiere 5+ Población. Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 2 días</t>
-  </si>
-  <si>
-    <t>Requiere una población de 10 o más. Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 3 días</t>
-  </si>
-  <si>
-    <t>Requiere una población de 15+. Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 5 días</t>
-  </si>
-  <si>
-    <t>Hasta 5 personas pueden trabajar aquí. Produce 5 Jade cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 15 personas pueden trabajar aquí. Produce 15 Jade cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 5 personas pueden trabajar aquí. Produce 20 piedras de hierro cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 15 personas pueden trabajar aquí. Produce 50 piedras de hierro cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 5 personas pueden trabajar aquí. Produce 20 maderas cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 15 personas pueden trabajar aquí. Produce 50 maderas cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 10 personas pueden trabajar aquí. Viene con 1 caravana</t>
-  </si>
-  <si>
-    <t>Hasta 15 personas pueden trabajar aquí. Viene con 2 caravanas</t>
-  </si>
-  <si>
-    <t>Hasta 30 personas pueden trabajar aquí. Viene con 3 caravanas</t>
-  </si>
-  <si>
-    <t>Aumenta la población máxima en +5</t>
-  </si>
-  <si>
-    <t>Aumenta la población máxima en +10</t>
-  </si>
-  <si>
-    <t>Aumenta la población máxima en +15</t>
-  </si>
-  <si>
-    <t>Aumenta la población máxima en +25</t>
-  </si>
-  <si>
-    <t>Requiere 5 Población. Activa 1 nivel de Recuperación de Combate, un beneficio temporal, en esta ubicación. Recuperación en el Campo de Batalla: Todas las tropas regeneran 5 puntos de salud por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Requiere 15 Población. Activa 2 niveles de Recuperación de Combate, un aumento temporal, en esta ubicación. Recuperación en el Campo de Batalla (2): Todas las tropas regeneran 10 puntos de salud por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Requiere 35 Población. Activa 3 niveles de Recuperación de Combate, un beneficio temporal, en esta ubicación. Recuperación en el Campo de Batalla (3): Todas las tropas regeneran 15 puntos de salud por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Requiere 25 Población. Activa 1 nivel de Ataque de Combate Mejorado, un aumento temporal, en esta ubicación. Ataque de Combate Mejorado: Aumenta el Ataque de todas las tropas en un 10% durante la batalla</t>
-  </si>
-  <si>
-    <t>La leyenda cuenta que los visitantes a estas antiguas ruinas pueden entrar en un trance de ilusión. ¡Derrota estas malévolas ilusiones para descubrir tesoros ocultos!</t>
-  </si>
-  <si>
-    <t>Usa 20 Población; aprende a usar simples Máquinas Antiguas aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población; aprende aquí máquinas antiguas más avanzadas</t>
-  </si>
-  <si>
-    <t>Usa 40 Población; aprende aquí sobre Máquinas Antiguas más avanzadas</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Aldeanos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Es-pías Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Asesinos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Asesinos Dakn de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Cazadores de Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Maestros Asesinos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Iniciados Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Sacerdotes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Altos Sacerdotes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;ancianos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Jóvenes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Aprendices de Alquimia Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Alquimistas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Apóstoles Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Sacerdotisas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Altas Sacerdotisas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Viudas Negras Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Viudas Negras Dakn de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Granjeros Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Milicia de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Arqueros de ballesta Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Arqueros de ballesta Nasir de élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Arqueros de ballesta Nasir Ace&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Aprendices de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Novatos lanzadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Lanzadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Magos Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Magos de Alta Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Los Ancianos Místicos Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Sanadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Clerigos de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Infantería de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Escoltas Nasir de élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Lanceros Pesados de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Lanceros de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta a &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Nasir Heavy Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Jinetes de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Caballería Pesada de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Caballería de Guardia de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Comunes de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Thur Heroes&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Guerreros Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Thur Skirmishers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Infantería Pesada de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Infantería Blindada Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Sargentos Thur de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Merodeadores de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Thur Armados Merodeadores&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Thur Berserkers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Thur Warmongers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Cazadores de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Arqueros Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Tiradores Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Tiradores Blindados de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Granjeros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;pastores de Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Héroes Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Soldados Cenizos Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Caballeros Cenizos Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Esgrimistas Dhib Ashen&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Guerreros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Guerreros Dhib de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Maestros de Espada Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Cazadores Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Rastreadores Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Domadores de Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Entrenadores de Bestias Dhib de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Cetreros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Domadores de Bestias Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Habitantes de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Espadachines Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Warriors&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Guerreros Akhal de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Akhal Guerreros de la Tormenta&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Caballería de Camello Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Élite de la Caballería de Camellos Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Tricksters&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Jinetes Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Jinetes Akhal Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Caballería Pesada Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Elite Akhal Caballería Pesada&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Caballería de Tormenta Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Arqueros&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Arqueros Akhal Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Akhal Arqueros Pesados&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Discípulos del Chamán Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Shamans&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Shamans de élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 50 Población. Recluta &lt;color=red&gt;Profetas de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Clérigos&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta a &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Infantería Pesada de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Lanceros de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Hoplitas de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Caballería de Asalto Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Tiradores de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Tiradores Rápidos Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Sanadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Herbolistas Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Cazadores de Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Dakn Stalkers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Lanzadores de Dardos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Lanzadores de Rayos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Tiradores de Espinas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Bebedores de Veneno Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Envenenadores Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Jinetes de Camello Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Jinetes Pesados Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Caballería Ligera Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Caballería de Lanza Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Arqueros a Caballo Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Akhal Reavers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Dhib Claymores&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Lanzaslargas Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Lanceros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Cazadores de Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Infantería Pesada de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Militantes de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 20 Población. Recluta &lt;color=red&gt;Arqueros Grandes de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere 30 Población. Recluta &lt;color=red&gt;Tiradores de Thur Ridge&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20+ y una base de nivel 3+ para construir. #[$tagbuilding:level$][=]2&amp;[$tagbuilding:type$][=]建设MOD木质哨岗</t>
-  </si>
-  <si>
-    <t>Campamento del Común Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Héroes del Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Marauder de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Merodeadores Armados del Thur</t>
-  </si>
-  <si>
-    <t>Campamento del cazador del Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Tirador Blindado de Thur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requiere una población ociosa de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD蛮牛族人. </t>
-  </si>
-  <si>
-    <t>Requiere una población inactiva de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD蛮牛壮士</t>
-  </si>
-  <si>
-    <t>Requiere una población ociosa de 20 o más para construir. #[$tagbuilding:type$][=]建设MOD蛮牛族人</t>
+    <t>Melhorar a posição tribal</t>
+  </si>
+  <si>
+    <t>Atualizar Fortaleza Tribal</t>
+  </si>
+  <si>
+    <t>Fazendinha</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
+    <t>Fazenda Grande</t>
+  </si>
+  <si>
+    <t>Canis Negligenciados</t>
+  </si>
+  <si>
+    <t>Zoológico</t>
+  </si>
+  <si>
+    <t>Acampamento mercenário</t>
+  </si>
+  <si>
+    <t>Guilda Mercenária</t>
+  </si>
+  <si>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>Forjamento</t>
+  </si>
+  <si>
+    <t>forja de elite</t>
+  </si>
+  <si>
+    <t>sentinela de madeira</t>
+  </si>
+  <si>
+    <t>Sentinela Sólida</t>
+  </si>
+  <si>
+    <t>Torre de vigilância</t>
+  </si>
+  <si>
+    <t>Grande arsenal</t>
+  </si>
+  <si>
+    <t>Estábulos de cabine</t>
+  </si>
+  <si>
+    <t>picadeiros</t>
+  </si>
+  <si>
+    <t>Estábulos do Sultão</t>
+  </si>
+  <si>
+    <t>Acampamento de Jade</t>
+  </si>
+  <si>
+    <t>Cabana Jade</t>
+  </si>
+  <si>
+    <t>Acampamento de mineração</t>
+  </si>
+  <si>
+    <t>Cabana de mineração</t>
+  </si>
+  <si>
+    <t>Acampamento de derrubada de árvores</t>
+  </si>
+  <si>
+    <t>cabana de madeira</t>
+  </si>
+  <si>
+    <t>entreposto comercial</t>
+  </si>
+  <si>
+    <t>Armazém comercial</t>
+  </si>
+  <si>
+    <t>Bazar comercial</t>
+  </si>
+  <si>
+    <t>Casinha</t>
+  </si>
+  <si>
+    <t>Casa reformada</t>
+  </si>
+  <si>
+    <t>Endereço do meio</t>
+  </si>
+  <si>
+    <t>residência grande</t>
+  </si>
+  <si>
+    <t>Águas doces</t>
+  </si>
+  <si>
+    <t>A casa da natureza</t>
+  </si>
+  <si>
+    <t>Cúspide da Primavera</t>
+  </si>
+  <si>
+    <t>Pilar de Fogo</t>
+  </si>
+  <si>
+    <t>Ruínas destruídas</t>
+  </si>
+  <si>
+    <t>biblioteca antiga</t>
+  </si>
+  <si>
+    <t>Acampamento dos Aldeões de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de espionagem Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos de Elite Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre Assassino Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Iniciação Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Sacerdote Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Sumo Sacerdote Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Anciãos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento Juvenil Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Aprendizes de Alquimia Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Apóstolo Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Sacerdotisa Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Alta Sacerdotisa Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Viúva Negra Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento Elite Dakn da Viúva Negra</t>
+  </si>
+  <si>
+    <t>Acampamento de agricultores de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento da Milícia Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de besteiros de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros de Elite Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de arqueiro com besta Nasir Ace</t>
+  </si>
+  <si>
+    <t>Acampamento de trainees de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de novatos do lançador Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de arremessadores de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Mago Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento dos Altos Magos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento dos Anciãos Místicos de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Curandeiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Clérigo Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Nasir Spearman</t>
+  </si>
+  <si>
+    <t>Acampamento de lanceiros pesados de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Lanceiro</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Gallant</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Pesado Galante</t>
+  </si>
+  <si>
+    <t>Acampamento do Cavaleiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria da Guarda Nasir</t>
+  </si>
+  <si>
+    <t>Qui Acampamento Comum</t>
+  </si>
+  <si>
+    <t>Acampamento dos Heróis de Quinta</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro de Quinta</t>
+  </si>
+  <si>
+    <t>Acampamento de escaramuçadores de quinta-feira</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria pesada de quinta-feira</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria blindada de quinta</t>
+  </si>
+  <si>
+    <t>Sargento de elite Thur Camp</t>
+  </si>
+  <si>
+    <t>Acampamento dos Saqueadores de Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de saqueadores armados de quinta-feira</t>
+  </si>
+  <si>
+    <t>Acampamento Berserker de quinta-feira</t>
+  </si>
+  <si>
+    <t>Febre do Campo de Guerra</t>
+  </si>
+  <si>
+    <t>Acampamento do Caçador de Qui</t>
+  </si>
+  <si>
+    <t>Acampamento de tiro com arco de quinta</t>
+  </si>
+  <si>
+    <t>Quinta Acampamento de Atiradores</t>
+  </si>
+  <si>
+    <t>Acampamento do Fuzileiro Blindado de Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de agricultores de Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de pastores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Heroico Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Soldado Dhib Ashen</t>
+  </si>
+  <si>
+    <t>Acampamento do Cavaleiro Ashen Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Espadachim Dhib Ashen</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros de Elite Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre da Espada Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de rastreamento Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Dhib Tamer</t>
+  </si>
+  <si>
+    <t>Campo de treinamento de elite da besta Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Falcoeiro Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre das Feras Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento dos Aldeões de Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Espadachins Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de guerreiros de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Guerreiros da Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de camelos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de camelos de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento do Enganador Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavaleiros de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Akhal Archrider</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Akhal Archrider</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiro Pesado Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Discípulos Akhal Shaman</t>
+  </si>
+  <si>
+    <t>Acampamento Xamã Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Akhal Xamã</t>
+  </si>
+  <si>
+    <t>Acampamento do Profeta Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Clérigos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria pesada de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Longspearman</t>
+  </si>
+  <si>
+    <t>Acampamento Hoplita Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de assalto de Nasir</t>
+  </si>
+  <si>
+    <t>Campo de tiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de atiradores rápidos Nasir Swift</t>
+  </si>
+  <si>
+    <t>Acampamento de ervas Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Dakn Stalker</t>
+  </si>
+  <si>
+    <t>Acampamento de lançadores de dardos Dakn</t>
+  </si>
+  <si>
+    <t>Lançador de Bolt Camp Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de atiradores de espinhos de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento dos bebedores de veneno de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Envenenador de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de jóquei de camelo Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavaleiros pesados de Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Leve Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria Akhal Lance</t>
+  </si>
+  <si>
+    <t>Acampamento de arqueiros a cavalo Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Akhal Reaver</t>
+  </si>
+  <si>
+    <t>Acampamento Dhib Claymore</t>
+  </si>
+  <si>
+    <t>Acampamento do Grande Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de lanceiros de Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de alabardeiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de caçadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Militante de Qui</t>
+  </si>
+  <si>
+    <t>Acampamento do Grande Arqueiro</t>
+  </si>
+  <si>
+    <t>Acampamento de rifles de Thur Ridge</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 5 ou mais para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 10 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:id$][=]Construindo uma pequena fazenda com o MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 15 ou mais e uma base de nível 3 ou superior para ser construída. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:id$][=]建设MOD农庄</t>
+  </si>
+  <si>
+    <t>Requer uma base de nível 2+ para construir. #[$tagbuilding:id$][=]建设破旧兽栏</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 5 ou mais para construir; Apenas 1 Acampamento Mercenário pode ser construído em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 25 ou mais e uma base de nível 2 ou superior para construir; Apenas 1 Acampamento Mercenário pode ser construído em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 10 ou mais para construir; Apenas 1 oficina de ferreiro pode ser construída em cada cidade. #[$tagplace:building_t=建设MOD雇佣兵营:建设MOD主城$][&lt;]1</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 15 anos e uma base de nível 2+ para construir; Você só pode construir 1 oficina de ferreiro em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais e uma base de nível 3 ou superior para ser construída. #[$tagbuilding:type$][=]建设MOD铁匠铺&amp;[$tagbuilding:level$][=]2</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais pessoas para construir; Apenas 1 Sentinela pode ser construída em cada cidade.</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais e uma base de nível 2 ou superior para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 20 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:level$][=]2&amp;[$tagbuilding:type$][=]建设MOD木质哨岗</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais e uma base de nível 2 ou superior para construir; Apenas 1 Portal Arcano pode ser construído em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 15 ou mais para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 25 ou mais e uma base de nível 2 ou superior para construir; Apenas 1 Arsenal pode ser construído em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 5 ou mais para construir; Você só pode construir 1 estábulo em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 10 ou mais e uma base de nível 2 ou superior para construir; Você só pode construir 1 Estábulo em cada cidade</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 15 anos e uma base de nível 3+ para construir; Apenas 1 Estábulo pode ser construído em cada cidade. #[$tagbuilding:type$][=]建设MOD骑手马厩&amp;[$tagbuilding:level$][=]2</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 5 ou mais e uma base de nível 2 ou superior para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 15+ e uma base de nível 3+ para construir. #[$tagbuilding:level$][=]1&amp;[$tagbuilding:type$][=]采玉场. Requer uma população ociosa com mais de 15 anos e uma base de nível 3+ para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 15 anos e uma base de nível 2+ para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 10 ou mais para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 15 anos e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD贸易&amp;[$tagbuilding:level$][=]1</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 3 ou superior para ser construída. #[$tagbuilding:type$][=]建设MOD贸易&amp;[$tagbuilding:level$][=]2</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=] Construir biblioteca MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 40 anos e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construa a misteriosa biblioteca MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais pessoas e apoio tribal Dakn para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族村民. Tradução: Requer uma população inativa de 20 ou mais para ser construída. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族村民</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagplace:stat=ps_基地等级$][&gt;=]1&amp;[$tagbuilding:type$][=]建设MOD蝎族密探</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:type$][=]建设MOD蝎族刺客</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]2&amp;[$tagbuilding:type$][=]建设MOD蝎族精英刺客</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construindo o MOD Scorpion Killer</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=]建设设族密探. Tradução: Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=] Edifício Scorpion Spy MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=] Construção do MOD Aprendiz do Sacerdote Escorpião</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 20+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族祭司</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construindo o MOD Sacerdote da Tribo Escorpião de alto escalão</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais pessoas e apoio tribal Dakn para construir.</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=]建设设MOD蝎族少女</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=] Construindo Scorpion Alchemist Apprentice MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=] Construindo o MOD Scorpion Alchemist</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设设MOD蝎族女使徒</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD蝎族女祭司</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设设MOD蝎族女刺客</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais pessoas e apoio tribal dos Nasir para ser construída. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=]建设雄鹰民夫</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设雄鹰民兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设雄鹰弩手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construção do MOD Golden Eagle Elite Archer</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=]建设雄鹰学徒. Requer uma população inativa de mais de 20 pessoas para ser construída. #[$tagbuilding:type$][=]建设雄鹰学徒</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰见习施法者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设雄鹰施法者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设雄鹰巫师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰高阶巫师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰治疗巫师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设雄鹰步兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=] Edifício MOD do Soldado Eagle Elite</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设雄鹰重装枪兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰盾卫</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 20+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设雄鹰步兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设雄鹰骑手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雄鹰重骑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais pessoas e apoio tribal de Thur para construir. #[$tagplace:stat=ps_基地等级$][&gt;=]1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requer uma população ociosa de 20 ou mais para construir. #[$tagbuilding:type$][=]建设MOD蛮牛族人.</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]建设MOD蛮牛壮士</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛勇士</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛刀手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛重步兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Versão do MOD de infantaria blindada Iron Bull</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛掠夺者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛武装掠夺者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛狂暴战士</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 20 ou mais para construir. #[$tagbuilding:type$][=]建设MOD蛮牛族人</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]建设MOD蛮牛猎手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD蛮牛弓箭手</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD蛮牛神射手</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 pessoas ou mais e apoio tribal do Dhib para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]建设MOD雪岭农夫</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]建设雪岭牧民</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设雪岭壮士</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭灰袍军</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construindo os guardas de armadura cinza dos picos nevados MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭勇士</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭精英勇士</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭剑术大师</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]建设MOD雪岭猎人</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭追击者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD雪岭驯兽师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construir MOD Snowpeak Falconer | [$tagbuilding:type$][=] Construir MOD Snowpeak Elite Beastmaster</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de mais de 20 pessoas e apoio tribal Akhal para construir</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 20 ou mais para ser construída. #[$tagbuilding:type$][=]Definição do MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设设MOD荒沙刀客</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD荒沙武士</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精英武士</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD荒沙骆驼骑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]Definição do MOD</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙镖手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙枪骑</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精锐枪骑</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙重骑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construindo o Mod de Cavalaria Pesada de Elite no Deserto</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙弓骑</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa com mais de 50 pessoas e uma base de nível 3+ para construir. #[$tagbuilding:type$][=] Construindo a unidade de arqueiro e cavaleiro de elite no mod Abandoned Desert</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=] Edifício do Deserto do Aprendiz Xamã</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设设MOD荒沙萨满</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD荒沙精英萨满</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰盾卫</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰长枪兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰骑手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰射手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雄鹰治疗师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎暗杀者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎镖手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎棘枪手</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD新_毒蝎炼毒师</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马骆驼骑手</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马轻骑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_野马弓骑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭巨剑兵</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭长枪兵</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD新_雪岭追踪者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛重步兵</t>
+  </si>
+  <si>
+    <t>Requer uma população inativa de 30 ou mais e uma base de nível 2 ou superior para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛武装者</t>
+  </si>
+  <si>
+    <t>Requer uma população ociosa de 30+ e uma base de nível 2+ para construir. #[$tagbuilding:type$][=]建设MOD新_蛮牛巨弓射手</t>
+  </si>
+  <si>
+    <t>Atualize para desbloquear mais edifícios e atualizações. Aumenta o limite populacional para 20</t>
+  </si>
+  <si>
+    <t>Atualize para desbloquear mais edifícios e atualizações. Aumenta o limite populacional para 40</t>
+  </si>
+  <si>
+    <t>Requer uma população de 5 ou mais para construir. Produza uma pequena quantidade de comida por semana</t>
+  </si>
+  <si>
+    <t>Requer uma população de 10 ou mais para construir. Produza algum alimento toda semana</t>
+  </si>
+  <si>
+    <t>Requer uma população de 15 ou mais para construir. Produz uma grande quantidade de alimentos por semana</t>
+  </si>
+  <si>
+    <t>Tranque feras em canis para treinar e gerar EXP de feras. Beast EXP aumenta conforme o nível do seu canil melhora</t>
+  </si>
+  <si>
+    <t>Requer uma população de 5 ou mais para construir. Recrute mercenários e treine tropas guarnecidas aqui</t>
+  </si>
+  <si>
+    <t>Requer uma população de 25 ou mais para construir. Recrute mercenários por um terço do custo e treine tropas guarnecidas aqui</t>
+  </si>
+  <si>
+    <t>Requer uma população de 10 ou mais para construir. Repare qualquer peça de equipamento de nível 1 a 7 aqui</t>
+  </si>
+  <si>
+    <t>Requer uma população de 15 ou mais para construir. Repare qualquer peça de equipamento de nível 1 a 12 aqui</t>
+  </si>
+  <si>
+    <t>Requer uma população de 20 ou mais para construir. Repare qualquer equipamento aqui e recrute uma besta</t>
+  </si>
+  <si>
+    <t>Requer uma população de 20 ou mais para construir. Fornece uma força de patrulha central para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Requer uma população de 20 ou mais para construir. Fornece uma força de patrulha maior para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Requer uma população de 20 ou mais para construir. Fornece uma força de patrulha de elite para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Requer uma população de 20 ou mais para construir. Transporta você para qualquer cidade não hostil através do deserto</t>
+  </si>
+  <si>
+    <t>Requer uma população de 15+. Dá às tropas visitantes um aumento de defesa de +30% por 7 dias</t>
+  </si>
+  <si>
+    <t>Requer uma população de 25+. Visite para obter um aumento de defesa de +30% para todas as tropas por 10 dias</t>
+  </si>
+  <si>
+    <t>Requer uma população de 15+. Visite para obter um aumento de ataque de +30% para todas as tropas por 7 dias</t>
+  </si>
+  <si>
+    <t>Requer uma população de 25 ou mais. Visite para obter um aumento de 30% no ataque de todas as tropas por 10 dias</t>
+  </si>
+  <si>
+    <t>Requer 5+ população. Visite para obter um aumento de velocidade de movimento para todas as tropas por 2 dias</t>
+  </si>
+  <si>
+    <t>Requer uma população de 10 ou mais. Visite para obter um aumento de velocidade de movimento para todas as tropas por 3 dias</t>
+  </si>
+  <si>
+    <t>Requer uma população de 15+. Visite para obter um aumento de velocidade de movimento para todas as tropas por 5 dias</t>
+  </si>
+  <si>
+    <t>Até 5 pessoas podem trabalhar aqui. Produza 5 Jade por semana</t>
+  </si>
+  <si>
+    <t>Até 15 pessoas podem trabalhar aqui. Produza 15 Jade por semana</t>
+  </si>
+  <si>
+    <t>Até 5 pessoas podem trabalhar aqui. Produza 20 pedras de ferro toda semana</t>
+  </si>
+  <si>
+    <t>Até 15 pessoas podem trabalhar aqui. Produza 50 pedras de ferro toda semana</t>
+  </si>
+  <si>
+    <t>Até 5 pessoas podem trabalhar aqui. Produza 20 madeiras por semana</t>
+  </si>
+  <si>
+    <t>Até 15 pessoas podem trabalhar aqui. Produza 50 madeiras por semana</t>
+  </si>
+  <si>
+    <t>Até 10 pessoas podem trabalhar aqui. Acompanha 1 caravana</t>
+  </si>
+  <si>
+    <t>Até 15 pessoas podem trabalhar aqui. Acompanha 2 caravanas</t>
+  </si>
+  <si>
+    <t>Até 30 pessoas podem trabalhar aqui. Acompanha 3 caravanas</t>
+  </si>
+  <si>
+    <t>Aumenta a população máxima em +5</t>
+  </si>
+  <si>
+    <t>Aumenta a população máxima em +10</t>
+  </si>
+  <si>
+    <t>Aumenta a população máxima em +15</t>
+  </si>
+  <si>
+    <t>Aumenta a população máxima em +25</t>
+  </si>
+  <si>
+    <t>Requer 5 População. Ative 1 nível de Combat Recovery, um buff temporário, neste local. Recuperação do Campo de Batalha: Todas as tropas regeneram 5 pontos de saúde por segundo durante a batalha</t>
+  </si>
+  <si>
+    <t>Requer 15 habitantes. Ative 2 níveis de Recuperação de Combate, um aumento temporário, neste local. Recuperação do Campo de Batalha (2): Todas as tropas regeneram 10 pontos de saúde por segundo durante a batalha</t>
+  </si>
+  <si>
+    <t>Requer 35 habitantes. Ative 3 níveis de Combat Recovery, um buff temporário, neste local. Recuperação do Campo de Batalha (3): Todas as tropas regeneram 15 pontos de saúde por segundo durante a batalha</t>
+  </si>
+  <si>
+    <t>Requer 25 habitantes. Ative 1 nível de Ataque de Combate Aprimorado, um aumento temporário, neste local. Ataque de combate aprimorado: aumenta o ataque de todas as tropas em 10% durante a batalha</t>
+  </si>
+  <si>
+    <t>Diz a lenda que os visitantes destas ruínas antigas podem entrar num transe de ilusão. Derrote essas ilusões malignas para descobrir tesouros escondidos!</t>
+  </si>
+  <si>
+    <t>Use 20 População; aprenda como usar máquinas antigas simples aqui</t>
+  </si>
+  <si>
+    <t>Use 30 População; aprenda máquinas antigas mais avançadas aqui</t>
+  </si>
+  <si>
+    <t>Use 40 População; aprenda aqui sobre máquinas antigas mais avançadas</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Aldeões Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Spies&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Elite Dakn Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Hunters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Dakn Master Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Iniciados&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Sacerdotes Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Sumos Sacerdotes Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;anciãos Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Youth&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Aprendizes de Alquimia Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Alquimistas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Apóstolos Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Sacerdotisas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Altas Sacerdotisas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Black Widows&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Viúvas Negras Elite Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Fazendeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute a &lt;color=red&gt;Milícia Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Arqueiros Besta Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Arqueiros Besta de Elite Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Arqueiros Besta Nasir Ace&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Aprendizes de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Nasir Rookie Casters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Lançadores Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Nasir Mages&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Altos Magos Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Os Anciãos Místicos Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Curandeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Clérigos de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute a &lt;color=red&gt;Infantaria Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Acompanhantes Elite Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute os &lt;color=red&gt;Lanceiros Pesados de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute os &lt;color=red&gt;Lanceiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Nasir Heavy Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Cavaleiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute a &lt;color=red&gt;Cavalaria Pesada de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute a &lt;color=red&gt;Cavalaria da Guarda de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Thur Commons&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Thur Heroes&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Thur Warriors&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Escaramuçadores de Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Quinta Infantaria Pesada&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Infantaria Blindada Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Sargentos de Elite Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Thur Marauders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Thur Saqueadores Armados&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Thur Berserkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Thur Belicistas&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Caçadores de Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Qui Arqueiros&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Thur Sharpshooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Atiradores Blindados de Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Fazendeiros Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;pastores Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Heróis Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Soldados Dhib Ashen&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Cavaleiros Dhib Ash&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Dhib Ashen Fencers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Guerreiros Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Guerreiros de Elite Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Dhib Swordmasters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Caçadores de Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;rastreadores Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dhib Tamers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Treinadores de Elite Dhib Beast&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Dhib Falconers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Dhib Beast Tamers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;residentes de Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Espadachins Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Guerreiros Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Guerreiros de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Guerreiros da Tempestade Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Cavalaria de Camelos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Camel Cavalry Elite&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Tricksters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Elite Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Cavalaria Pesada Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Cavalaria Pesada de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute a &lt;color=red&gt;Cavalaria da Tempestade Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Arqueiros Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Arqueiros de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Arqueiros Pesados Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Discípulos do Xamã Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Shamans&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Xamãs Akhal de Elite&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 50 habitantes. Recrute &lt;color=red&gt;Profetas Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Clérigos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Infantaria Pesada Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute os &lt;color=red&gt;Lanceiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Hoplitas Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Cavalaria de Assalto Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute os &lt;color=red&gt;atiradores de elite de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Nasir Fast Shooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Curandeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Herboristas Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Hunters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Stalkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Dart Throwers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Lightning Casters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dakn Thornshooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Poison Drinkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dakn Poisoners&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Akhal Camel Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Heavy Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Cavalaria Ligeira Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Cavalaria Lança Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Arqueiros Cavalos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Akhal Reavers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dhib Claymores&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Dhib Longspear&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Dhib Lancers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Caçadores de Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Quinta Infantaria Pesada&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Thur Militants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 20 habitantes. Recrute &lt;color=red&gt;Qui Grandes Arqueiros&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Requer 30 habitantes. Recrute &lt;color=red&gt;Atiradores de Elite de Thur Ridge&lt;/color&gt; aqui</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3702,10 +3692,10 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="90">
       <c r="A1" s="1" t="s">
@@ -3738,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -3747,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="120">
@@ -3758,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -3767,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="120">
@@ -3778,19 +3768,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="225">
@@ -3801,19 +3791,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="270">
@@ -3824,19 +3814,19 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="210">
@@ -3847,7 +3837,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -3856,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="210">
@@ -3867,19 +3857,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="285">
@@ -3890,19 +3880,19 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="375">
@@ -3913,19 +3903,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="285">
@@ -3936,19 +3926,19 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="315">
@@ -3959,19 +3949,19 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="240">
@@ -3982,19 +3972,19 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="180">
@@ -4005,19 +3995,19 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="255">
@@ -4028,19 +4018,19 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="255">
@@ -4051,19 +4041,19 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>1083</v>
+        <v>812</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="330">
@@ -4074,19 +4064,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="225">
@@ -4097,19 +4087,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="330">
@@ -4120,19 +4110,19 @@
         <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="225">
@@ -4149,13 +4139,13 @@
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="315">
@@ -4166,19 +4156,19 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="225">
@@ -4189,19 +4179,19 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="315">
@@ -4212,19 +4202,19 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="315">
@@ -4235,19 +4225,19 @@
         <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="180">
@@ -4258,19 +4248,19 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="225">
@@ -4281,19 +4271,19 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="135">
@@ -4304,19 +4294,19 @@
         <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="165">
@@ -4327,19 +4317,19 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="135">
@@ -4350,19 +4340,19 @@
         <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="165">
@@ -4373,19 +4363,19 @@
         <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="120">
@@ -4396,19 +4386,19 @@
         <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="240">
@@ -4419,19 +4409,19 @@
         <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="240">
@@ -4442,19 +4432,19 @@
         <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
@@ -4465,7 +4455,7 @@
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -4474,7 +4464,7 @@
         <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45">
@@ -4485,7 +4475,7 @@
         <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -4494,7 +4484,7 @@
         <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
@@ -4505,7 +4495,7 @@
         <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -4514,7 +4504,7 @@
         <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45">
@@ -4525,7 +4515,7 @@
         <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -4534,7 +4524,7 @@
         <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="210">
@@ -4545,7 +4535,7 @@
         <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -4554,7 +4544,7 @@
         <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="210">
@@ -4565,7 +4555,7 @@
         <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -4574,7 +4564,7 @@
         <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="210">
@@ -4585,7 +4575,7 @@
         <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -4594,7 +4584,7 @@
         <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="210">
@@ -4605,7 +4595,7 @@
         <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -4614,7 +4604,7 @@
         <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="255">
@@ -4625,7 +4615,7 @@
         <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -4634,7 +4624,7 @@
         <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="120">
@@ -4645,19 +4635,19 @@
         <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="180">
@@ -4668,19 +4658,19 @@
         <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="195">
@@ -4691,19 +4681,19 @@
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>166</v>
       </c>
       <c r="G45" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="240">
@@ -4714,19 +4704,19 @@
         <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="240">
@@ -4737,19 +4727,19 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G47" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="240">
@@ -4760,19 +4750,19 @@
         <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G48" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="300">
@@ -4783,19 +4773,19 @@
         <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G49" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="300">
@@ -4806,19 +4796,19 @@
         <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E50" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G50" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="240">
@@ -4829,19 +4819,19 @@
         <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>190</v>
       </c>
       <c r="G51" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="165">
@@ -4852,19 +4842,19 @@
         <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E52" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>194</v>
       </c>
       <c r="G52" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="240">
@@ -4875,19 +4865,19 @@
         <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E53" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="240">
@@ -4898,19 +4888,19 @@
         <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>202</v>
       </c>
       <c r="G54" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="240">
@@ -4921,19 +4911,19 @@
         <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>206</v>
       </c>
       <c r="G55" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="165">
@@ -4944,19 +4934,19 @@
         <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G56" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="165">
@@ -4967,19 +4957,19 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E57" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>214</v>
       </c>
       <c r="G57" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="180">
@@ -4990,19 +4980,19 @@
         <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="240">
@@ -5013,19 +5003,19 @@
         <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>222</v>
       </c>
       <c r="G59" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="240">
@@ -5036,19 +5026,19 @@
         <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>225</v>
       </c>
       <c r="E60" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G60" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="240">
@@ -5059,19 +5049,19 @@
         <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G61" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="240">
@@ -5082,19 +5072,19 @@
         <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G62" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="240">
@@ -5105,19 +5095,19 @@
         <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="240">
@@ -5128,19 +5118,19 @@
         <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G64" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="165">
@@ -5151,19 +5141,19 @@
         <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G65" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="240">
@@ -5174,19 +5164,19 @@
         <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G66" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="240">
@@ -5197,19 +5187,19 @@
         <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G67" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="240">
@@ -5220,19 +5210,19 @@
         <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>256</v>
       </c>
       <c r="E68" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G68" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="165">
@@ -5243,19 +5233,19 @@
         <v>259</v>
       </c>
       <c r="C69" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G69" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="165">
@@ -5266,19 +5256,19 @@
         <v>262</v>
       </c>
       <c r="C70" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E70" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G70" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="255">
@@ -5289,19 +5279,19 @@
         <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G71" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="240">
@@ -5312,19 +5302,19 @@
         <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E72" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G72" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="240">
@@ -5335,19 +5325,19 @@
         <v>274</v>
       </c>
       <c r="C73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G73" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="240">
@@ -5358,19 +5348,19 @@
         <v>278</v>
       </c>
       <c r="C74" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>280</v>
       </c>
       <c r="G74" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="240">
@@ -5381,19 +5371,19 @@
         <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>283</v>
       </c>
       <c r="G75" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="240">
@@ -5404,19 +5394,19 @@
         <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G76" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="240">
@@ -5427,19 +5417,19 @@
         <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E77" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>290</v>
       </c>
       <c r="G77" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="240">
@@ -5450,19 +5440,19 @@
         <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>294</v>
       </c>
       <c r="G78" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="240">
@@ -5473,19 +5463,19 @@
         <v>296</v>
       </c>
       <c r="C79" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E79" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>298</v>
       </c>
       <c r="G79" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="240">
@@ -5496,19 +5486,19 @@
         <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>301</v>
       </c>
       <c r="E80" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>302</v>
       </c>
       <c r="G80" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="240">
@@ -5519,19 +5509,19 @@
         <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G81" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="240">
@@ -5542,19 +5532,19 @@
         <v>307</v>
       </c>
       <c r="C82" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>309</v>
       </c>
       <c r="G82" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="240">
@@ -5565,19 +5555,19 @@
         <v>311</v>
       </c>
       <c r="C83" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E83" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G83" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="240">
@@ -5588,19 +5578,19 @@
         <v>315</v>
       </c>
       <c r="C84" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G84" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="240">
@@ -5611,19 +5601,19 @@
         <v>319</v>
       </c>
       <c r="C85" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E85" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>321</v>
       </c>
       <c r="G85" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="240">
@@ -5634,19 +5624,19 @@
         <v>323</v>
       </c>
       <c r="C86" t="s">
-        <v>1084</v>
+        <v>722</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>325</v>
       </c>
       <c r="G86" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="165">
@@ -5657,19 +5647,19 @@
         <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>1085</v>
+        <v>723</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>328</v>
       </c>
       <c r="E87" t="s">
-        <v>1090</v>
+        <v>864</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="165">
@@ -5680,19 +5670,19 @@
         <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>332</v>
       </c>
       <c r="E88" t="s">
-        <v>1091</v>
+        <v>865</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>333</v>
       </c>
       <c r="G88" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="240">
@@ -5703,19 +5693,19 @@
         <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>336</v>
       </c>
       <c r="E89" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>337</v>
       </c>
       <c r="G89" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="240">
@@ -5726,19 +5716,19 @@
         <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G90" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="240">
@@ -5749,19 +5739,19 @@
         <v>343</v>
       </c>
       <c r="C91" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>344</v>
       </c>
       <c r="E91" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="240">
@@ -5772,19 +5762,19 @@
         <v>347</v>
       </c>
       <c r="C92" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>348</v>
       </c>
       <c r="E92" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>349</v>
       </c>
       <c r="G92" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="240">
@@ -5795,19 +5785,19 @@
         <v>351</v>
       </c>
       <c r="C93" t="s">
-        <v>1086</v>
+        <v>729</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E93" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G93" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="240">
@@ -5818,19 +5808,19 @@
         <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>1087</v>
+        <v>730</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>355</v>
       </c>
       <c r="E94" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G94" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="255">
@@ -5841,19 +5831,19 @@
         <v>358</v>
       </c>
       <c r="C95" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E95" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>360</v>
       </c>
       <c r="G95" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="240">
@@ -5864,19 +5854,19 @@
         <v>362</v>
       </c>
       <c r="C96" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E96" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>364</v>
       </c>
       <c r="G96" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="165">
@@ -5887,19 +5877,19 @@
         <v>366</v>
       </c>
       <c r="C97" t="s">
-        <v>1088</v>
+        <v>733</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>328</v>
       </c>
       <c r="E97" t="s">
-        <v>1092</v>
+        <v>873</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>367</v>
       </c>
       <c r="G97" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="165">
@@ -5910,19 +5900,19 @@
         <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>370</v>
       </c>
       <c r="E98" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>371</v>
       </c>
       <c r="G98" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="240">
@@ -5933,19 +5923,19 @@
         <v>373</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>374</v>
       </c>
       <c r="E99" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>375</v>
       </c>
       <c r="G99" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="240">
@@ -5956,19 +5946,19 @@
         <v>377</v>
       </c>
       <c r="C100" t="s">
-        <v>1089</v>
+        <v>736</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>378</v>
       </c>
       <c r="E100" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>379</v>
       </c>
       <c r="G100" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="165">
@@ -5979,19 +5969,19 @@
         <v>381</v>
       </c>
       <c r="C101" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>383</v>
       </c>
       <c r="G101" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="165">
@@ -6002,19 +5992,19 @@
         <v>385</v>
       </c>
       <c r="C102" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>386</v>
       </c>
       <c r="E102" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>387</v>
       </c>
       <c r="G102" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="165">
@@ -6025,19 +6015,19 @@
         <v>389</v>
       </c>
       <c r="C103" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>390</v>
       </c>
       <c r="E103" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>391</v>
       </c>
       <c r="G103" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="240">
@@ -6048,19 +6038,19 @@
         <v>393</v>
       </c>
       <c r="C104" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>394</v>
       </c>
       <c r="E104" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>395</v>
       </c>
       <c r="G104" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="240">
@@ -6071,19 +6061,19 @@
         <v>397</v>
       </c>
       <c r="C105" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>398</v>
       </c>
       <c r="E105" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>399</v>
       </c>
       <c r="G105" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="240">
@@ -6094,19 +6084,19 @@
         <v>401</v>
       </c>
       <c r="C106" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>402</v>
       </c>
       <c r="E106" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>403</v>
       </c>
       <c r="G106" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="240">
@@ -6117,19 +6107,19 @@
         <v>405</v>
       </c>
       <c r="C107" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>394</v>
       </c>
       <c r="E107" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>406</v>
       </c>
       <c r="G107" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="240">
@@ -6140,19 +6130,19 @@
         <v>408</v>
       </c>
       <c r="C108" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>409</v>
       </c>
       <c r="E108" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>410</v>
       </c>
       <c r="G108" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="240">
@@ -6163,19 +6153,19 @@
         <v>412</v>
       </c>
       <c r="C109" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>413</v>
       </c>
       <c r="E109" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>414</v>
       </c>
       <c r="G109" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="240">
@@ -6186,19 +6176,19 @@
         <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>417</v>
       </c>
       <c r="E110" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G110" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="165">
@@ -6209,19 +6199,19 @@
         <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>390</v>
       </c>
       <c r="E111" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="165">
@@ -6232,19 +6222,19 @@
         <v>423</v>
       </c>
       <c r="C112" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E112" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>425</v>
       </c>
       <c r="G112" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="240">
@@ -6255,19 +6245,19 @@
         <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>428</v>
       </c>
       <c r="E113" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>429</v>
       </c>
       <c r="G113" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="240">
@@ -6278,19 +6268,19 @@
         <v>431</v>
       </c>
       <c r="C114" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E114" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G114" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="240">
@@ -6301,19 +6291,19 @@
         <v>435</v>
       </c>
       <c r="C115" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E115" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>436</v>
       </c>
       <c r="G115" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="330">
@@ -6324,19 +6314,19 @@
         <v>438</v>
       </c>
       <c r="C116" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>439</v>
       </c>
       <c r="E116" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>440</v>
       </c>
       <c r="G116" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="165">
@@ -6347,19 +6337,19 @@
         <v>442</v>
       </c>
       <c r="C117" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>443</v>
       </c>
       <c r="E117" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>444</v>
       </c>
       <c r="G117" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="165">
@@ -6370,19 +6360,19 @@
         <v>446</v>
       </c>
       <c r="C118" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>447</v>
       </c>
       <c r="E118" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>448</v>
       </c>
       <c r="G118" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="240">
@@ -6393,19 +6383,19 @@
         <v>450</v>
       </c>
       <c r="C119" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>451</v>
       </c>
       <c r="E119" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G119" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="240">
@@ -6416,19 +6406,19 @@
         <v>454</v>
       </c>
       <c r="C120" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>455</v>
       </c>
       <c r="E120" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>456</v>
       </c>
       <c r="G120" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="240">
@@ -6439,19 +6429,19 @@
         <v>458</v>
       </c>
       <c r="C121" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>459</v>
       </c>
       <c r="E121" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>460</v>
       </c>
       <c r="G121" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="165">
@@ -6462,19 +6452,19 @@
         <v>462</v>
       </c>
       <c r="C122" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>447</v>
       </c>
       <c r="E122" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G122" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="240">
@@ -6485,19 +6475,19 @@
         <v>465</v>
       </c>
       <c r="C123" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>466</v>
       </c>
       <c r="E123" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>467</v>
       </c>
       <c r="G123" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="240">
@@ -6508,19 +6498,19 @@
         <v>469</v>
       </c>
       <c r="C124" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>470</v>
       </c>
       <c r="E124" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>471</v>
       </c>
       <c r="G124" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="240">
@@ -6531,19 +6521,19 @@
         <v>473</v>
       </c>
       <c r="C125" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>474</v>
       </c>
       <c r="E125" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>475</v>
       </c>
       <c r="G125" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="240">
@@ -6554,19 +6544,19 @@
         <v>477</v>
       </c>
       <c r="C126" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>478</v>
       </c>
       <c r="E126" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>479</v>
       </c>
       <c r="G126" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="240">
@@ -6577,19 +6567,19 @@
         <v>481</v>
       </c>
       <c r="C127" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>482</v>
       </c>
       <c r="E127" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>483</v>
       </c>
       <c r="G127" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="240">
@@ -6600,19 +6590,19 @@
         <v>485</v>
       </c>
       <c r="C128" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>486</v>
       </c>
       <c r="E128" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>487</v>
       </c>
       <c r="G128" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="255">
@@ -6623,19 +6613,19 @@
         <v>489</v>
       </c>
       <c r="C129" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>490</v>
       </c>
       <c r="E129" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>491</v>
       </c>
       <c r="G129" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="240">
@@ -6646,19 +6636,19 @@
         <v>493</v>
       </c>
       <c r="C130" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>474</v>
       </c>
       <c r="E130" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>494</v>
       </c>
       <c r="G130" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="240">
@@ -6669,19 +6659,19 @@
         <v>496</v>
       </c>
       <c r="C131" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>497</v>
       </c>
       <c r="E131" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>498</v>
       </c>
       <c r="G131" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="240">
@@ -6692,19 +6682,19 @@
         <v>500</v>
       </c>
       <c r="C132" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>501</v>
       </c>
       <c r="E132" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>502</v>
       </c>
       <c r="G132" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="165">
@@ -6715,19 +6705,19 @@
         <v>504</v>
       </c>
       <c r="C133" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>447</v>
       </c>
       <c r="E133" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>505</v>
       </c>
       <c r="G133" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="240">
@@ -6738,19 +6728,19 @@
         <v>507</v>
       </c>
       <c r="C134" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>508</v>
       </c>
       <c r="E134" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>509</v>
       </c>
       <c r="G134" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="240">
@@ -6761,19 +6751,19 @@
         <v>511</v>
       </c>
       <c r="C135" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E135" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>513</v>
       </c>
       <c r="G135" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="240">
@@ -6784,19 +6774,19 @@
         <v>515</v>
       </c>
       <c r="C136" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>516</v>
       </c>
       <c r="E136" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>517</v>
       </c>
       <c r="G136" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="240">
@@ -6807,19 +6797,19 @@
         <v>519</v>
       </c>
       <c r="C137" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E137" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>520</v>
       </c>
       <c r="G137" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="150">
@@ -6830,19 +6820,19 @@
         <v>304</v>
       </c>
       <c r="C138" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E138" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>523</v>
       </c>
       <c r="G138" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="240">
@@ -6853,19 +6843,19 @@
         <v>525</v>
       </c>
       <c r="C139" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>526</v>
       </c>
       <c r="E139" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>527</v>
       </c>
       <c r="G139" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="150">
@@ -6876,19 +6866,19 @@
         <v>529</v>
       </c>
       <c r="C140" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E140" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>530</v>
       </c>
       <c r="G140" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="240">
@@ -6899,19 +6889,19 @@
         <v>532</v>
       </c>
       <c r="C141" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>533</v>
       </c>
       <c r="E141" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>534</v>
       </c>
       <c r="G141" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="150">
@@ -6922,19 +6912,19 @@
         <v>311</v>
       </c>
       <c r="C142" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E142" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G142" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="240">
@@ -6945,19 +6935,19 @@
         <v>537</v>
       </c>
       <c r="C143" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>538</v>
       </c>
       <c r="E143" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>539</v>
       </c>
       <c r="G143" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="150">
@@ -6968,19 +6958,19 @@
         <v>541</v>
       </c>
       <c r="C144" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E144" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>542</v>
       </c>
       <c r="G144" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="240">
@@ -6991,19 +6981,19 @@
         <v>544</v>
       </c>
       <c r="C145" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>545</v>
       </c>
       <c r="E145" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>546</v>
       </c>
       <c r="G145" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="150">
@@ -7014,19 +7004,19 @@
         <v>548</v>
       </c>
       <c r="C146" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E146" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>549</v>
       </c>
       <c r="G146" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="240">
@@ -7037,19 +7027,19 @@
         <v>551</v>
       </c>
       <c r="C147" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>552</v>
       </c>
       <c r="E147" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>553</v>
       </c>
       <c r="G147" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="150">
@@ -7060,19 +7050,19 @@
         <v>555</v>
       </c>
       <c r="C148" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E148" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>556</v>
       </c>
       <c r="G148" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="240">
@@ -7083,19 +7073,19 @@
         <v>558</v>
       </c>
       <c r="C149" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>559</v>
       </c>
       <c r="E149" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>560</v>
       </c>
       <c r="G149" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="150">
@@ -7106,19 +7096,19 @@
         <v>562</v>
       </c>
       <c r="C150" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E150" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>563</v>
       </c>
       <c r="G150" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="240">
@@ -7129,19 +7119,19 @@
         <v>565</v>
       </c>
       <c r="C151" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>566</v>
       </c>
       <c r="E151" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>567</v>
       </c>
       <c r="G151" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="150">
@@ -7152,19 +7142,19 @@
         <v>569</v>
       </c>
       <c r="C152" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E152" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>570</v>
       </c>
       <c r="G152" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="240">
@@ -7175,19 +7165,19 @@
         <v>572</v>
       </c>
       <c r="C153" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>573</v>
       </c>
       <c r="E153" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>574</v>
       </c>
       <c r="G153" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="150">
@@ -7198,19 +7188,19 @@
         <v>576</v>
       </c>
       <c r="C154" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E154" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>577</v>
       </c>
       <c r="G154" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="240">
@@ -7221,19 +7211,19 @@
         <v>579</v>
       </c>
       <c r="C155" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>580</v>
       </c>
       <c r="E155" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>581</v>
       </c>
       <c r="G155" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="150">
@@ -7244,19 +7234,19 @@
         <v>583</v>
       </c>
       <c r="C156" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E156" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>584</v>
       </c>
       <c r="G156" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="255">
@@ -7267,19 +7257,19 @@
         <v>586</v>
       </c>
       <c r="C157" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>587</v>
       </c>
       <c r="E157" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>588</v>
       </c>
       <c r="G157" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="150">
@@ -7290,19 +7280,19 @@
         <v>590</v>
       </c>
       <c r="C158" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E158" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>591</v>
       </c>
       <c r="G158" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="240">
@@ -7313,19 +7303,19 @@
         <v>593</v>
       </c>
       <c r="C159" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>594</v>
       </c>
       <c r="E159" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>595</v>
       </c>
       <c r="G159" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="150">
@@ -7336,19 +7326,19 @@
         <v>597</v>
       </c>
       <c r="C160" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E160" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>598</v>
       </c>
       <c r="G160" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="240">
@@ -7359,19 +7349,19 @@
         <v>600</v>
       </c>
       <c r="C161" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>601</v>
       </c>
       <c r="E161" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>602</v>
       </c>
       <c r="G161" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="150">
@@ -7382,19 +7372,19 @@
         <v>604</v>
       </c>
       <c r="C162" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E162" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>605</v>
       </c>
       <c r="G162" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="240">
@@ -7405,19 +7395,19 @@
         <v>607</v>
       </c>
       <c r="C163" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>608</v>
       </c>
       <c r="E163" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>609</v>
       </c>
       <c r="G163" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="150">
@@ -7428,19 +7418,19 @@
         <v>611</v>
       </c>
       <c r="C164" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E164" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>612</v>
       </c>
       <c r="G164" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="240">
@@ -7451,19 +7441,19 @@
         <v>614</v>
       </c>
       <c r="C165" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>615</v>
       </c>
       <c r="E165" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>616</v>
       </c>
       <c r="G165" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="150">
@@ -7474,19 +7464,19 @@
         <v>618</v>
       </c>
       <c r="C166" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E166" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>619</v>
       </c>
       <c r="G166" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="240">
@@ -7497,19 +7487,19 @@
         <v>621</v>
       </c>
       <c r="C167" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>622</v>
       </c>
       <c r="E167" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>623</v>
       </c>
       <c r="G167" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="150">
@@ -7520,19 +7510,19 @@
         <v>339</v>
       </c>
       <c r="C168" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E168" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>625</v>
       </c>
       <c r="G168" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="240">
@@ -7543,19 +7533,19 @@
         <v>343</v>
       </c>
       <c r="C169" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>627</v>
       </c>
       <c r="E169" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G169" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="150">
@@ -7566,19 +7556,19 @@
         <v>629</v>
       </c>
       <c r="C170" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E170" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>630</v>
       </c>
       <c r="G170" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="240">
@@ -7589,19 +7579,19 @@
         <v>351</v>
       </c>
       <c r="C171" t="s">
-        <v>1086</v>
+        <v>729</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E171" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>352</v>
       </c>
       <c r="G171" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="150">
@@ -7612,19 +7602,19 @@
         <v>634</v>
       </c>
       <c r="C172" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>522</v>
       </c>
       <c r="E172" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>635</v>
       </c>
       <c r="G172" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="255">
@@ -7635,19 +7625,19 @@
         <v>637</v>
       </c>
       <c r="C173" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>638</v>
       </c>
       <c r="E173" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>639</v>
       </c>
       <c r="G173" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
